--- a/diary/2017-5-23(L).xlsx
+++ b/diary/2017-5-23(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>P</t>
   </si>
@@ -78,11 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>堅果 50g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雞胸肉500g</t>
+    <t>番茄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,23 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全家三明治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大蒜麵包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 海鮮丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飲料</t>
+    <t>高蛋白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +492,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -531,146 +523,138 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="5">
         <v>19.8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>2.1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
         <v>19.3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>3.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>13.6</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>6.4</v>
+        <v>2.67</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3</v>
+        <v>6.4</v>
       </c>
       <c r="D7" s="1">
-        <v>9.1</v>
+        <v>6.4</v>
       </c>
       <c r="F7" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>115</v>
+        <v>19.3</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="1">
-        <v>3.33</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,23 +671,23 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>190.95</v>
+        <v>201.85</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>81.900000000000006</v>
+        <v>55.3</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>65.33</v>
+        <v>79.570000000000007</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1679.3700000000001</v>
+        <v>1744.73</v>
       </c>
       <c r="F18" s="1">
-        <f>SUM(F2:F17)</f>
-        <v>263</v>
+        <f>SUM(F3:F17)</f>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
